--- a/controller_test/Controller Mapping.xlsx
+++ b/controller_test/Controller Mapping.xlsx
@@ -21,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>X Mode</t>
-  </si>
-  <si>
-    <t>D Mode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"> LX -254(left)..254(right)</t>
   </si>
@@ -41,23 +35,23 @@
     <t>RY '-254(down)..254(up)</t>
   </si>
   <si>
-    <t>14 and LT 0 or 255</t>
+    <t>6 and LT 0..255</t>
   </si>
   <si>
-    <t>15 and RT 0 or 255</t>
+    <t>7 and RT 0..255</t>
   </si>
   <si>
-    <t>14 and LT 0..255</t>
+    <t>Logitech F310/F710</t>
   </si>
   <si>
-    <t>15 and RT 0..255</t>
+    <t>(MODE should be OFF since it swaps the D-pad and left stick.  The input mode switch on the back should be set to X.  D makes LT and RT binary buttons)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -117,36 +111,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF4F81BD"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF4F81BD"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -162,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -170,129 +134,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -331,60 +178,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -397,8 +190,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,13 +282,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95760</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1217160</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -506,44 +305,6 @@
         <a:xfrm>
           <a:off x="4369680" y="438120"/>
           <a:ext cx="5978520" cy="3323520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>86040</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1207440</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>321315</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 3"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect t="13185" b="9294"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4359960" y="5680800"/>
-          <a:ext cx="5978520" cy="3313800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -846,7 +607,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K35"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -855,366 +616,178 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="4" customWidth="1"/>
-    <col min="4" max="6" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="19.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" customWidth="1"/>
     <col min="9" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.75">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="3" spans="2:11" ht="26.1" customHeight="1">
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="H3" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="C1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="2:11" ht="26.1" customHeight="1">
-      <c r="B4" s="6">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10"/>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="11">
-        <v>13</v>
-      </c>
-      <c r="K4" s="5"/>
+      <c r="H4" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="2:11" ht="26.1" customHeight="1">
-      <c r="B5" s="8">
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="9">
         <v>5</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="H5" s="11">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="26.1" customHeight="1">
       <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="12">
-        <v>15</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="H6" s="9">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="26.1" customHeight="1">
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="H7" s="13">
-        <v>13</v>
-      </c>
-      <c r="K7" s="5"/>
+      <c r="B7" s="4">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="26.1" customHeight="1">
       <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="H8" s="14">
-        <v>12</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="26.1" customHeight="1">
-      <c r="B9" s="8">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="H9" s="15">
+      <c r="B9" s="4">
         <v>14</v>
       </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="26.1" customHeight="1">
-      <c r="B10" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10"/>
+      <c r="B10" s="6">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="H10" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="16"/>
+      <c r="H10" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="2:11" ht="26.1" customHeight="1">
-      <c r="B11" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="H11" s="35" t="s">
-        <v>5</v>
-      </c>
+      <c r="B11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:11" ht="26.1" customHeight="1">
-      <c r="B12" s="6">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10"/>
+      <c r="B12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="H12" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="C18" s="22"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="C19" s="32"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="33"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="21" spans="2:10" ht="18.75">
-      <c r="C21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="23" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="H23" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B24" s="6">
-        <v>12</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="H24" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B25" s="8">
-        <v>5</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="H25" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="H26" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B27" s="8">
-        <v>2</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="H27" s="34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="H28" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B29" s="8">
+      <c r="H12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="H29" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B30" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="H30" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B31" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="H31" s="35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B32" s="6">
-        <v>6</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="H32" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="6"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="8"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="6"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="H35" s="11"/>
+    </row>
+    <row r="13" spans="2:11" ht="26.1" customHeight="1">
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="7">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
